--- a/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006314</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中融策略优选混合A</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>21.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7546</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>009347</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>中融价值成长6个月持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.71</t>
+          <t>19.94</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>5</v>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9152</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>006314</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>中融策略优选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5905</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006240</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合A</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006241</t>
+          <t>000314</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融医疗健康精选混合C</t>
+          <t>招商瑞丰灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.69</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>002389</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>招商安德灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>5</v>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0826</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -660,25 +730,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>003145</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>中融竞争优势股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>3</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>008425</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中融品牌优选混合C</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.96</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.78</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000314</t>
+          <t>009348</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合A</t>
+          <t>中融价值成长6个月持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -744,25 +844,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>002389</t>
+          <t>002017</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合A</t>
+          <t>招商瑞丰灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002390</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商安德灵活配置混合C</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>21.52</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002017</t>
+          <t>002390</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商瑞丰灵活配置混合C</t>
+          <t>招商安德灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>006240</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>中融医疗健康精选混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.63</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009347</t>
+          <t>006241</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合A</t>
+          <t>中融医疗健康精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -884,25 +1034,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>009348</t>
+          <t>008425</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融价值成长6个月持有期混合C</t>
+          <t>中融品牌优选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.18</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>3</v>
       </c>
     </row>
@@ -917,7 +1077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1098,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1128,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006274</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>圆信永丰医药健康混合</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -996,15 +1176,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>92.72</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>3.27</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006315</t>
+          <t>005108</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融策略优选混合C</t>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>008424</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>中融品牌优选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>001965</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>圆信永丰兴源灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.03</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001965</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合A</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001966</t>
+          <t>003145</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>圆信永丰兴源灵活配置混合C</t>
+          <t>中融竞争优势股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.80</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005108</t>
+          <t>006315</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+          <t>中融策略优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.65</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>003145</t>
+          <t>001966</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中融竞争优势股票</t>
+          <t>圆信永丰兴源灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.34</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.21</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>9</v>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008424</t>
+          <t>006274</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融品牌优选混合A</t>
+          <t>圆信永丰医药健康混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.52</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1248,15 +1518,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>93.52</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.57</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1543,4 +1544,288 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4990</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004617</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004618</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信鑫稳回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1828,4 +1829,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2037,4 +2038,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2046,7 +2047,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2057,17 +2058,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2077,14 +2098,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.14</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2192</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -2093,14 +2136,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1.63</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="4">
@@ -2109,14 +2242,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="5">
@@ -2125,13 +2258,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2179,7 +2180,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2190,17 +2191,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2210,14 +2231,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.32</v>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2226,14 +2269,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.14</v>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2242,14 +2307,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>1.63</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="5">
@@ -2258,14 +2429,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="6">
@@ -2274,13 +2445,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.93</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300406-九强生物.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>1.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.14</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1.63</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.93</v>
       </c>
     </row>
@@ -583,6 +600,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005618</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005619</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通红利机会主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -752,7 +901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -884,7 +1033,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1092,7 +1241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1376,7 +1525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1850,7 +1999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
